--- a/biology/Zoologie/Holcosus_undulatus/Holcosus_undulatus.xlsx
+++ b/biology/Zoologie/Holcosus_undulatus/Holcosus_undulatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Holcosus undulatus est une espèce de sauriens de la famille des Teiidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Holcosus undulatus est une espèce de sauriens de la famille des Teiidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre entre 80 et 100 m d'altitude[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre entre 80 et 100 m d'altitude :
 au Costa Rica ;
 au Nicaragua ;
 au Honduras ;
@@ -548,9 +562,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (23 septembre 2015)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (23 septembre 2015) :
 Holcosus undulatus amphigrammus (Smith &amp; Laufe, 1946)
 Holcosus undulatus dextrus (Smith &amp; Laufe, 1946)
 Holcosus undulatus gaigeae (Smith &amp; Laufe, 1946)
@@ -589,7 +605,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Barbour &amp; Loveridge, 1929 : Vertebrates from the Corn Islands: reptiles and amphibians. Bulletin of the Museum of Comparative Zoology, Cambridge, Massachusetts, vol. 69, p. 138-146 (texte intégral).
 Barbour &amp; Noble, 1915 : A revision of the lizards of the genus Ameiva. Bulletin of the Museum of Comparative Zoology at Harvard College, vol. 59, p. 417-479 (texte intégral).
